--- a/visited_profiles.xlsx
+++ b/visited_profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="478">
   <si>
     <t>Links</t>
   </si>
@@ -589,6 +589,264 @@
     <t>https://www.facebook.com/greg.james.3745</t>
   </si>
   <si>
+    <t>https://www.facebook.com/sufiyan.suleman</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Alfanashoba</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iram.abdul.3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/heerae.28613</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pip.nicholas</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dorswinz</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/elizabeth.preston.37604</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mari.skaare.3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/phoebe.evans.1806</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/charlotte.cox.35513</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/glain.lewis</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lottie.beer.50</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PaulWHeselwood</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/malikgulzar.haider</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/azamat.kumykov</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/swarnsingh.khattra</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/darcie.gillon</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dean.copperthwaite</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sally.griffiths.902819</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lara.scullion</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/loveisallthereis</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/declan.tolmie.5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/adam.ohara.121</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/arurugby</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/james.farah99</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hillary.chipashu</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/day.crofts.77</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ashique.salimvp</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/adam.bangs.5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/caroline.wiles3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/matteo.contu.31</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kiana.fzi</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/shelley.williams.756</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ellie343</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BUArcherySociety</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kerri.rogers.79</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lynne.mackintosh</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/renuka.poudel.750</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/juna.ghatani</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/amitkumar.nepali.9</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/grishma1229</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ju.gu.127</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/steph.ly.54</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nataliechany</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/benni.rommel</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prit.patel.904</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gaurav.khullar.37</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jay.raichura</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/roshnie.madhani</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/victor.moldo</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/universitytaekwondo</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/matt.miles.7967</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/naeemyousaf.asif</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cbsgb.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hannah.cox.581525</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/josephine.burt.3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ben.orton.796</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/claire.ingram.140</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hazel.welsh.9</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MSHDundee</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/duncan.rendall.35</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/niamh.murphy.7923</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marisaallan95</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lea.wnt</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sean.kelly.908579</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lewis.cannon</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/susan.fitzsimmons.54</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dylan.ronaldson</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/simon.mcdonald.3532</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chris.bach.798</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cameron.Leigh.jones</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/anita.goold</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fiona.saxby.3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/clare.stockley.7</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mat.liles</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rozie.goold</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chris.saxby.71</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lewis.aj.5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kirstin.dixon.5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tom.saxby.7</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ollie.wilson.18</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tanith.jones.33</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/laurence.taylor.549</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Ethan.Purdy0</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DarcieDeeney98</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UniversityOfAbertayTennisSociety</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daisy Clara </t>
   </si>
   <si>
@@ -983,6 +1241,204 @@
   </si>
   <si>
     <t xml:space="preserve">Greg James Viney </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufiyan Sakur Suleman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofian Noell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iram Mohammed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nida Qadar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pip Davies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doreen Suppan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth Preston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mari Skaare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoebe Evans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte Cox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glain Melangell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte Beer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Heselwood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malik Gulzar Haider </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azamat Kumykov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swarn Singh Khattra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darcie Gillon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dean Copperthwaite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sally Griffiths </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara Scullion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharon Shanley </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declan Tolmie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam O'Hara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglia Ruskin University Rugby Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Farah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hillary Chipashu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day Crofts </t>
+  </si>
+  <si>
+    <t>Ashique Salim SU  (VP Business and Law)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Bangs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroline Tortorici </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Contu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiana Fzi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelley Williams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellie Jones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bournemouth University Archery Society </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerri Rogers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynne Mackintosh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renu Chhetri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juna Ghatani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit Sah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grishma Gurung </t>
+  </si>
+  <si>
+    <t>Jugal Acharya  (Jugu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steph Ly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalie Chan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Rommel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prit Patel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaurav Khullar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayden Raichura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roshnie Madhani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Moldo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canterbury Christ Church University Taekwondo Society </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Matt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naeem Yousaf Asif </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confederation of British Surgery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannah Cox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josephine Burt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Orton </t>
+  </si>
+  <si>
+    <t>Claire Ingram  (Claire Strachan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazel Welsh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macron Sports Hub Dundee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duncan Rendall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiona Saxby </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis Appleton-Jones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirsty Dixon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D'arcie Deeney </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abertay University Tennis Club </t>
   </si>
   <si>
     <t>sent</t>
@@ -1366,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1394,10 +1850,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E2" s="3">
         <v>45729.45590743056</v>
@@ -1408,13 +1864,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="C3" s="3">
         <v>45769.39134809028</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E3" s="3">
         <v>45769.39180306713</v>
@@ -1425,13 +1881,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="C4" s="3">
         <v>45769.39195777778</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="E4" s="3">
         <v>45775.39923459491</v>
@@ -1442,13 +1898,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="C5" s="3">
         <v>45769.393556875</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E5" s="3">
         <v>45769.3939902662</v>
@@ -1459,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="C6" s="3">
         <v>45769.39414614583</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E6" s="3">
         <v>45769.39475805555</v>
@@ -1476,13 +1932,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="C7" s="3">
         <v>45769.39488809028</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E7" s="3">
         <v>45769.39530201389</v>
@@ -1493,13 +1949,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="C8" s="3">
         <v>45769.39543224537</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E8" s="3">
         <v>45769.39587959491</v>
@@ -1510,13 +1966,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="C9" s="3">
         <v>45769.39601069444</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E9" s="3">
         <v>45769.39638245371</v>
@@ -1527,13 +1983,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="C10" s="3">
         <v>45769.39652471065</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="E10" s="3">
         <v>45769.52887822917</v>
@@ -1544,13 +2000,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="C11" s="3">
         <v>45769.39782626157</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E11" s="3">
         <v>45769.39832921296</v>
@@ -1561,13 +2017,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="C12" s="3">
         <v>45769.39846738426</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="E12" s="3">
         <v>45769.39921211806</v>
@@ -1578,13 +2034,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="C13" s="3">
         <v>45769.3993530787</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="E13" s="3">
         <v>45769.40026425926</v>
@@ -1595,13 +2051,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="C14" s="3">
         <v>45769.52972837963</v>
       </c>
       <c r="D14" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E14" s="3">
         <v>45769.53024152778</v>
@@ -1612,13 +2068,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="C15" s="3">
         <v>45769.53057944444</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E15" s="3">
         <v>45769.53100694445</v>
@@ -1632,7 +2088,7 @@
         <v>45769.53057944444</v>
       </c>
       <c r="D16" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E16" s="3">
         <v>45769.53699791666</v>
@@ -1643,13 +2099,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="C17" s="3">
         <v>45769.64278372685</v>
       </c>
       <c r="D17" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E17" s="3">
         <v>45769.6432040625</v>
@@ -1660,13 +2116,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="C18" s="3">
         <v>45769.64355303241</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E18" s="3">
         <v>45769.6448378588</v>
@@ -1677,13 +2133,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C19" s="3">
         <v>45769.64537166667</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E19" s="3">
         <v>45769.64582034722</v>
@@ -1694,13 +2150,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="C20" s="3">
         <v>45769.64597053241</v>
       </c>
       <c r="D20" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E20" s="3">
         <v>45769.64642899306</v>
@@ -1711,13 +2167,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="C21" s="3">
         <v>45769.6465596875</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E21" s="3">
         <v>45769.64698011574</v>
@@ -1728,13 +2184,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="C22" s="3">
         <v>45769.64711372685</v>
       </c>
       <c r="D22" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E22" s="3">
         <v>45769.64751170139</v>
@@ -1745,13 +2201,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="C23" s="3">
         <v>45769.64764241898</v>
       </c>
       <c r="D23" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E23" s="3">
         <v>45769.64858046296</v>
@@ -1765,7 +2221,7 @@
         <v>45769.64871280092</v>
       </c>
       <c r="D24" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E24" s="3">
         <v>45769.6871866088</v>
@@ -1776,13 +2232,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="C25" s="3">
         <v>45769.64926625</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E25" s="3">
         <v>45770.39506855324</v>
@@ -1793,13 +2249,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="C26" s="3">
         <v>45769.65080658565</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E26" s="3">
         <v>45769.65126298611</v>
@@ -1810,13 +2266,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="C27" s="3">
         <v>45769.65140197916</v>
       </c>
       <c r="D27" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E27" s="3">
         <v>45769.65187574074</v>
@@ -1827,13 +2283,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="C28" s="3">
         <v>45769.65255013889</v>
       </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E28" s="3">
         <v>45769.65294702546</v>
@@ -1844,13 +2300,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="C29" s="3">
         <v>45769.65308006945</v>
       </c>
       <c r="D29" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E29" s="3">
         <v>45770.39561526621</v>
@@ -1861,13 +2317,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="C30" s="3">
         <v>45769.65352929398</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E30" s="3">
         <v>45770.43731657408</v>
@@ -1878,13 +2334,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="C31" s="3">
         <v>45769.65395362268</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E31" s="3">
         <v>45769.65432278935</v>
@@ -1898,7 +2354,7 @@
         <v>45769.65445484954</v>
       </c>
       <c r="D32" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E32" s="3">
         <v>45769.6549019213</v>
@@ -1909,13 +2365,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="C33" s="3">
         <v>45769.65506600695</v>
       </c>
       <c r="D33" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E33" s="3">
         <v>45770.43788162037</v>
@@ -1926,13 +2382,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="C34" s="3">
         <v>45769.65553952546</v>
       </c>
       <c r="D34" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E34" s="3">
         <v>45769.65601829861</v>
@@ -1943,13 +2399,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="C35" s="3">
         <v>45769.65615184028</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E35" s="3">
         <v>45769.65661300926</v>
@@ -1960,13 +2416,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="C36" s="3">
         <v>45769.65674548611</v>
       </c>
       <c r="D36" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E36" s="3">
         <v>45770.62890003472</v>
@@ -1977,13 +2433,13 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="C37" s="3">
         <v>45769.6571903125</v>
       </c>
       <c r="D37" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E37" s="3">
         <v>45770.62948638889</v>
@@ -1994,13 +2450,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="C38" s="3">
         <v>45769.65766649305</v>
       </c>
       <c r="D38" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E38" s="3">
         <v>45769.65807407408</v>
@@ -2011,13 +2467,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="C39" s="3">
         <v>45769.65820449074</v>
       </c>
       <c r="D39" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E39" s="3">
         <v>45769.65851085648</v>
@@ -2028,13 +2484,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="C40" s="3">
         <v>45769.65938715278</v>
       </c>
       <c r="D40" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E40" s="3">
         <v>45769.65985487268</v>
@@ -2045,13 +2501,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="C41" s="3">
         <v>45769.66040846065</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E41" s="3">
         <v>45769.6607645949</v>
@@ -2062,13 +2518,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="C42" s="3">
         <v>45769.66089534722</v>
       </c>
       <c r="D42" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E42" s="3">
         <v>45769.66133802084</v>
@@ -2082,7 +2538,7 @@
         <v>45769.66146818287</v>
       </c>
       <c r="D43" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E43" s="3">
         <v>45769.66192530093</v>
@@ -2093,13 +2549,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="C44" s="3">
         <v>45769.66205563657</v>
       </c>
       <c r="D44" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E44" s="3">
         <v>45769.66246125</v>
@@ -2110,13 +2566,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="C45" s="3">
         <v>45769.66364835648</v>
       </c>
       <c r="D45" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E45" s="3">
         <v>45769.66409130787</v>
@@ -2127,13 +2583,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="C46" s="3">
         <v>45769.66422208333</v>
       </c>
       <c r="D46" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E46" s="3">
         <v>45769.66464333333</v>
@@ -2144,13 +2600,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="C47" s="3">
         <v>45769.66501171296</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E47" s="3">
         <v>45771.41715693287</v>
@@ -2161,13 +2617,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="C48" s="3">
         <v>45769.66553871528</v>
       </c>
       <c r="D48" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E48" s="3">
         <v>45769.66597396991</v>
@@ -2178,13 +2634,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="C49" s="3">
         <v>45769.6663340162</v>
       </c>
       <c r="D49" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E49" s="3">
         <v>45769.66676346065</v>
@@ -2195,13 +2651,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C50" s="3">
         <v>45769.66689456019</v>
       </c>
       <c r="D50" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E50" s="3">
         <v>45769.66733131945</v>
@@ -2212,13 +2668,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="C51" s="3">
         <v>45769.66746357639</v>
       </c>
       <c r="D51" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E51" s="3">
         <v>45769.66791767361</v>
@@ -2229,13 +2685,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="C52" s="3">
         <v>45769.66805424768</v>
       </c>
       <c r="D52" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E52" s="3">
         <v>45769.66852226852</v>
@@ -2246,13 +2702,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="C53" s="3">
         <v>45769.66865363426</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E53" s="3">
         <v>45769.66913936342</v>
@@ -2263,13 +2719,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="C54" s="3">
         <v>45769.66926947916</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E54" s="3">
         <v>45769.66974371528</v>
@@ -2280,13 +2736,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="C55" s="3">
         <v>45769.6698778588</v>
       </c>
       <c r="D55" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E55" s="3">
         <v>45769.67028561343</v>
@@ -2297,13 +2753,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="C56" s="3">
         <v>45769.67041606482</v>
       </c>
       <c r="D56" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E56" s="3">
         <v>45769.67086196759</v>
@@ -2314,13 +2770,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="C57" s="3">
         <v>45769.67138719907</v>
       </c>
       <c r="D57" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E57" s="3">
         <v>45769.67184224537</v>
@@ -2331,13 +2787,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="C58" s="3">
         <v>45769.67197300926</v>
       </c>
       <c r="D58" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E58" s="3">
         <v>45769.67240223379</v>
@@ -2348,13 +2804,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="C59" s="3">
         <v>45769.67253329861</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E59" s="3">
         <v>45769.67299127315</v>
@@ -2365,13 +2821,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="C60" s="3">
         <v>45769.67312111111</v>
       </c>
       <c r="D60" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E60" s="3">
         <v>45769.67356959491</v>
@@ -2382,13 +2838,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C61" s="3">
         <v>45769.67494288195</v>
       </c>
       <c r="D61" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E61" s="3">
         <v>45771.41777482639</v>
@@ -2399,13 +2855,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="C62" s="3">
         <v>45769.67542148148</v>
       </c>
       <c r="D62" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E62" s="3">
         <v>45769.67583736111</v>
@@ -2416,13 +2872,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="C63" s="3">
         <v>45769.67597047453</v>
       </c>
       <c r="D63" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E63" s="3">
         <v>45769.67641267361</v>
@@ -2433,13 +2889,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="C64" s="3">
         <v>45769.67677782408</v>
       </c>
       <c r="D64" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E64" s="3">
         <v>45771.64075380787</v>
@@ -2450,13 +2906,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="C65" s="3">
         <v>45769.67754247685</v>
       </c>
       <c r="D65" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E65" s="3">
         <v>45769.67795572917</v>
@@ -2467,13 +2923,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="C66" s="3">
         <v>45769.68223797454</v>
       </c>
       <c r="D66" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E66" s="3">
         <v>45769.68269443287</v>
@@ -2484,13 +2940,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="C67" s="3">
         <v>45769.68282541667</v>
       </c>
       <c r="D67" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E67" s="3">
         <v>45769.68327511574</v>
@@ -2501,13 +2957,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="C68" s="3">
         <v>45769.68755859954</v>
       </c>
       <c r="D68" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E68" s="3">
         <v>45769.68811194444</v>
@@ -2518,13 +2974,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="C69" s="3">
         <v>45769.68824263889</v>
       </c>
       <c r="D69" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E69" s="3">
         <v>45769.68867162037</v>
@@ -2535,13 +2991,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="C70" s="3">
         <v>45770.39827524305</v>
       </c>
       <c r="D70" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E70" s="3">
         <v>45770.39872576389</v>
@@ -2552,13 +3008,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="C71" s="3">
         <v>45770.39885761574</v>
       </c>
       <c r="D71" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E71" s="3">
         <v>45771.64127945602</v>
@@ -2569,13 +3025,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="C72" s="3">
         <v>45770.39928145833</v>
       </c>
       <c r="D72" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E72" s="3">
         <v>45770.39973180556</v>
@@ -2586,13 +3042,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="C73" s="3">
         <v>45770.39986454861</v>
       </c>
       <c r="D73" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E73" s="3">
         <v>45770.40033131945</v>
@@ -2603,13 +3059,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="C74" s="3">
         <v>45770.40046334491</v>
       </c>
       <c r="D74" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E74" s="3">
         <v>45770.40080989584</v>
@@ -2623,7 +3079,7 @@
         <v>45770.40195194444</v>
       </c>
       <c r="D75" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E75" s="3">
         <v>45770.40244548611</v>
@@ -2634,13 +3090,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="C76" s="3">
         <v>45770.40257628472</v>
       </c>
       <c r="D76" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E76" s="3">
         <v>45770.40297936343</v>
@@ -2651,13 +3107,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="C77" s="3">
         <v>45770.40311109953</v>
       </c>
       <c r="D77" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E77" s="3">
         <v>45770.40351719908</v>
@@ -2671,7 +3127,7 @@
         <v>45770.40364811342</v>
       </c>
       <c r="D78" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E78" s="3">
         <v>45771.68355886574</v>
@@ -2685,7 +3141,7 @@
         <v>45770.4040930324</v>
       </c>
       <c r="D79" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E79" s="3">
         <v>45770.40454858796</v>
@@ -2696,13 +3152,13 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="C80" s="3">
         <v>45770.4046819213</v>
       </c>
       <c r="D80" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E80" s="3">
         <v>45770.40508915509</v>
@@ -2713,13 +3169,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="C81" s="3">
         <v>45770.40521967593</v>
       </c>
       <c r="D81" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E81" s="3">
         <v>45771.68408967592</v>
@@ -2733,7 +3189,7 @@
         <v>45770.40568700231</v>
       </c>
       <c r="D82" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E82" s="3">
         <v>45770.40615111111</v>
@@ -2744,13 +3200,13 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="C83" s="3">
         <v>45770.40628341436</v>
       </c>
       <c r="D83" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E83" s="3">
         <v>45770.40673283565</v>
@@ -2761,13 +3217,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="C84" s="3">
         <v>45770.4068694676</v>
       </c>
       <c r="D84" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E84" s="3">
         <v>45770.40728611111</v>
@@ -2778,13 +3234,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="C85" s="3">
         <v>45770.40963472222</v>
       </c>
       <c r="D85" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E85" s="3">
         <v>45772.66070388889</v>
@@ -2795,13 +3251,13 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="C86" s="3">
         <v>45770.41263057871</v>
       </c>
       <c r="D86" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E86" s="3">
         <v>45770.41309247685</v>
@@ -2812,13 +3268,13 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="C87" s="3">
         <v>45770.41555840278</v>
       </c>
       <c r="D87" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E87" s="3">
         <v>45770.41601678241</v>
@@ -2832,7 +3288,7 @@
         <v>45770.41614701389</v>
       </c>
       <c r="D88" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E88" s="3">
         <v>45770.41656649306</v>
@@ -2843,13 +3299,13 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="C89" s="3">
         <v>45770.41757106481</v>
       </c>
       <c r="D89" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E89" s="3">
         <v>45770.41801141204</v>
@@ -2860,13 +3316,13 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="C90" s="3">
         <v>45770.41839079861</v>
       </c>
       <c r="D90" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E90" s="3">
         <v>45770.41887479166</v>
@@ -2877,13 +3333,13 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="C91" s="3">
         <v>45770.41926981482</v>
       </c>
       <c r="D91" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E91" s="3">
         <v>45770.419681875</v>
@@ -2894,13 +3350,13 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="C92" s="3">
         <v>45770.41981240741</v>
       </c>
       <c r="D92" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E92" s="3">
         <v>45770.42025122685</v>
@@ -2914,7 +3370,7 @@
         <v>45770.42087506945</v>
       </c>
       <c r="D93" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E93" s="3">
         <v>45770.42134989583</v>
@@ -2928,7 +3384,7 @@
         <v>45770.42147989583</v>
       </c>
       <c r="D94" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E94" s="3">
         <v>45770.42210604167</v>
@@ -2939,13 +3395,13 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="C95" s="3">
         <v>45770.42581364583</v>
       </c>
       <c r="D95" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E95" s="3">
         <v>45770.42626315972</v>
@@ -2959,7 +3415,7 @@
         <v>45770.42639684028</v>
       </c>
       <c r="D96" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E96" s="3">
         <v>45770.42681226852</v>
@@ -2970,13 +3426,13 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="C97" s="3">
         <v>45770.4269446875</v>
       </c>
       <c r="D97" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E97" s="3">
         <v>45770.4273215162</v>
@@ -2987,13 +3443,13 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="C98" s="3">
         <v>45770.4274533912</v>
       </c>
       <c r="D98" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E98" s="3">
         <v>45770.42786685185</v>
@@ -3007,7 +3463,7 @@
         <v>45770.43124224537</v>
       </c>
       <c r="D99" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E99" s="3">
         <v>45770.43171123842</v>
@@ -3021,7 +3477,7 @@
         <v>45770.43184195601</v>
       </c>
       <c r="D100" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E100" s="3">
         <v>45770.43231940972</v>
@@ -3032,13 +3488,13 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="C101" s="3">
         <v>45770.43245016204</v>
       </c>
       <c r="D101" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E101" s="3">
         <v>45772.66119744213</v>
@@ -3049,13 +3505,13 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="C102" s="3">
         <v>45770.43292799769</v>
       </c>
       <c r="D102" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E102" s="3">
         <v>45770.43336100694</v>
@@ -3066,13 +3522,13 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="C103" s="3">
         <v>45770.43349258102</v>
       </c>
       <c r="D103" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E103" s="3">
         <v>45770.43391693287</v>
@@ -3083,13 +3539,13 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="C104" s="3">
         <v>45770.43405019676</v>
       </c>
       <c r="D104" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E104" s="3">
         <v>45770.43446949074</v>
@@ -3100,13 +3556,13 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="C105" s="3">
         <v>45770.43460159722</v>
       </c>
       <c r="D105" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E105" s="3">
         <v>45770.43503043982</v>
@@ -3117,13 +3573,13 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="C106" s="3">
         <v>45770.43607028935</v>
       </c>
       <c r="D106" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E106" s="3">
         <v>45770.43647881944</v>
@@ -3137,7 +3593,7 @@
         <v>45770.43800438657</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E107" s="3">
         <v>45770.43845299769</v>
@@ -3148,13 +3604,13 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="C108" s="3">
         <v>45770.43883900463</v>
       </c>
       <c r="D108" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E108" s="3">
         <v>45770.43924975694</v>
@@ -3165,13 +3621,13 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="C109" s="3">
         <v>45770.43938440972</v>
       </c>
       <c r="D109" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E109" s="3">
         <v>45770.43983799768</v>
@@ -3185,7 +3641,7 @@
         <v>45770.43996865741</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="E110" s="3">
         <v>45775.40758137732</v>
@@ -3196,13 +3652,13 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="C111" s="3">
         <v>45770.44046109953</v>
       </c>
       <c r="D111" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E111" s="3">
         <v>45770.44094684028</v>
@@ -3213,13 +3669,13 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="C112" s="3">
         <v>45770.44107799768</v>
       </c>
       <c r="D112" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E112" s="3">
         <v>45770.44148069445</v>
@@ -3230,13 +3686,13 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="C113" s="3">
         <v>45770.44161310185</v>
       </c>
       <c r="D113" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E113" s="3">
         <v>45770.4420946875</v>
@@ -3250,7 +3706,7 @@
         <v>45770.44222592592</v>
       </c>
       <c r="D114" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E114" s="3">
         <v>45770.44263868056</v>
@@ -3264,7 +3720,7 @@
         <v>45770.44277034722</v>
       </c>
       <c r="D115" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E115" s="3">
         <v>45770.443243125</v>
@@ -3275,13 +3731,13 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="C116" s="3">
         <v>45770.44386575231</v>
       </c>
       <c r="D116" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E116" s="3">
         <v>45770.44420609954</v>
@@ -3292,13 +3748,13 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="C117" s="3">
         <v>45770.44433844907</v>
       </c>
       <c r="D117" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E117" s="3">
         <v>45770.44474826389</v>
@@ -3312,7 +3768,7 @@
         <v>45770.63424067129</v>
       </c>
       <c r="D118" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E118" s="3">
         <v>45770.63471413194</v>
@@ -3323,13 +3779,13 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="C119" s="3">
         <v>45771.42046445602</v>
       </c>
       <c r="D119" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E119" s="3">
         <v>45771.42093792824</v>
@@ -3340,13 +3796,13 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="C120" s="3">
         <v>45771.4219321412</v>
       </c>
       <c r="D120" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E120" s="3">
         <v>45771.42239767361</v>
@@ -3357,13 +3813,13 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="C121" s="3">
         <v>45771.42361087963</v>
       </c>
       <c r="D121" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E121" s="3">
         <v>45771.42404840278</v>
@@ -3374,13 +3830,13 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="C122" s="3">
         <v>45771.42441505787</v>
       </c>
       <c r="D122" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E122" s="3">
         <v>45771.42483825231</v>
@@ -3391,13 +3847,13 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="C123" s="3">
         <v>45771.42748472222</v>
       </c>
       <c r="D123" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E123" s="3">
         <v>45771.42792386574</v>
@@ -3411,7 +3867,7 @@
         <v>45771.64448780093</v>
       </c>
       <c r="D124" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E124" s="3">
         <v>45771.64491840278</v>
@@ -3425,7 +3881,7 @@
         <v>45771.64504756944</v>
       </c>
       <c r="D125" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E125" s="3">
         <v>45771.64545429398</v>
@@ -3439,7 +3895,7 @@
         <v>45771.64558363426</v>
       </c>
       <c r="D126" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E126" s="3">
         <v>45771.64589100694</v>
@@ -3453,7 +3909,7 @@
         <v>45771.64792678241</v>
       </c>
       <c r="D127" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E127" s="3">
         <v>45771.64838921296</v>
@@ -3467,7 +3923,7 @@
         <v>45771.64851837963</v>
       </c>
       <c r="D128" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E128" s="3">
         <v>45771.64893726852</v>
@@ -3478,13 +3934,13 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="C129" s="3">
         <v>45771.64906805556</v>
       </c>
       <c r="D129" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E129" s="3">
         <v>45771.64948667824</v>
@@ -3498,7 +3954,7 @@
         <v>45771.64961554398</v>
       </c>
       <c r="D130" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E130" s="3">
         <v>45775.40811305556</v>
@@ -3512,7 +3968,7 @@
         <v>45771.65010597222</v>
       </c>
       <c r="D131" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E131" s="3">
         <v>45771.65055349537</v>
@@ -3526,7 +3982,7 @@
         <v>45771.65068275463</v>
       </c>
       <c r="D132" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E132" s="3">
         <v>45771.65110114584</v>
@@ -3540,7 +3996,7 @@
         <v>45771.6512319213</v>
       </c>
       <c r="D133" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E133" s="3">
         <v>45771.6516433912</v>
@@ -3554,7 +4010,7 @@
         <v>45771.65177230324</v>
       </c>
       <c r="D134" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E134" s="3">
         <v>45771.65223634259</v>
@@ -3568,7 +4024,7 @@
         <v>45771.65299064814</v>
       </c>
       <c r="D135" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E135" s="3">
         <v>45771.65345079861</v>
@@ -3582,7 +4038,7 @@
         <v>45771.65357997685</v>
       </c>
       <c r="D136" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E136" s="3">
         <v>45771.6540178588</v>
@@ -3596,7 +4052,7 @@
         <v>45771.65437</v>
       </c>
       <c r="D137" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E137" s="3">
         <v>45771.65481123843</v>
@@ -3610,7 +4066,7 @@
         <v>45771.65819241898</v>
       </c>
       <c r="D138" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E138" s="3">
         <v>45771.65856675926</v>
@@ -3624,7 +4080,7 @@
         <v>45771.65869600695</v>
       </c>
       <c r="D139" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E139" s="3">
         <v>45771.65906993055</v>
@@ -3638,7 +4094,7 @@
         <v>45771.65919881944</v>
       </c>
       <c r="D140" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E140" s="3">
         <v>45771.65968768518</v>
@@ -3649,13 +4105,13 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="C141" s="3">
         <v>45771.65981695602</v>
       </c>
       <c r="D141" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E141" s="3">
         <v>45771.66021703704</v>
@@ -3669,7 +4125,7 @@
         <v>45771.66034587963</v>
       </c>
       <c r="D142" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E142" s="3">
         <v>45771.6607278588</v>
@@ -3683,7 +4139,7 @@
         <v>45771.6608569213</v>
       </c>
       <c r="D143" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E143" s="3">
         <v>45771.66129119213</v>
@@ -3697,7 +4153,7 @@
         <v>45771.67638784722</v>
       </c>
       <c r="D144" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E144" s="3">
         <v>45771.67682262731</v>
@@ -3711,7 +4167,7 @@
         <v>45771.67736290509</v>
       </c>
       <c r="D145" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E145" s="3">
         <v>45771.67772245371</v>
@@ -3725,7 +4181,7 @@
         <v>45771.6790856713</v>
       </c>
       <c r="D146" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E146" s="3">
         <v>45771.67944859953</v>
@@ -3739,7 +4195,7 @@
         <v>45771.68153359953</v>
       </c>
       <c r="D147" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E147" s="3">
         <v>45771.68190456019</v>
@@ -3753,7 +4209,7 @@
         <v>45771.68226947917</v>
       </c>
       <c r="D148" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E148" s="3">
         <v>45771.68275091435</v>
@@ -3767,7 +4223,7 @@
         <v>45771.68456085648</v>
       </c>
       <c r="D149" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E149" s="3">
         <v>45771.68501755787</v>
@@ -3781,7 +4237,7 @@
         <v>45771.68514671296</v>
       </c>
       <c r="D150" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E150" s="3">
         <v>45771.68556740741</v>
@@ -3795,7 +4251,7 @@
         <v>45771.68590732639</v>
       </c>
       <c r="D151" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E151" s="3">
         <v>45771.6862393287</v>
@@ -3806,13 +4262,13 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="C152" s="3">
         <v>45771.68637002315</v>
       </c>
       <c r="D152" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E152" s="3">
         <v>45771.68671313657</v>
@@ -3826,7 +4282,7 @@
         <v>45771.68706719908</v>
       </c>
       <c r="D153" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E153" s="3">
         <v>45771.68744630787</v>
@@ -3840,7 +4296,7 @@
         <v>45771.68757528935</v>
       </c>
       <c r="D154" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E154" s="3">
         <v>45771.68797638889</v>
@@ -3854,7 +4310,7 @@
         <v>45771.68810603009</v>
       </c>
       <c r="D155" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E155" s="3">
         <v>45771.68847868055</v>
@@ -3868,7 +4324,7 @@
         <v>45771.68885827546</v>
       </c>
       <c r="D156" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E156" s="3">
         <v>45771.68919837963</v>
@@ -3882,7 +4338,7 @@
         <v>45771.68932758102</v>
       </c>
       <c r="D157" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E157" s="3">
         <v>45771.68974322917</v>
@@ -3893,13 +4349,13 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="C158" s="3">
         <v>45771.68987328704</v>
       </c>
       <c r="D158" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E158" s="3">
         <v>45771.69029819444</v>
@@ -3913,7 +4369,7 @@
         <v>45771.69090355324</v>
       </c>
       <c r="D159" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E159" s="3">
         <v>45775.40863241898</v>
@@ -3927,7 +4383,7 @@
         <v>45771.69133608796</v>
       </c>
       <c r="D160" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E160" s="3">
         <v>45771.69182013889</v>
@@ -3941,7 +4397,7 @@
         <v>45771.6919495949</v>
       </c>
       <c r="D161" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E161" s="3">
         <v>45771.69238443287</v>
@@ -3952,13 +4408,13 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="C162" s="3">
         <v>45771.69813831019</v>
       </c>
       <c r="D162" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E162" s="3">
         <v>45771.69845186343</v>
@@ -3972,7 +4428,7 @@
         <v>45772.67598991898</v>
       </c>
       <c r="D163" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E163" s="3">
         <v>45772.67639747685</v>
@@ -3983,13 +4439,13 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="C164" s="3">
         <v>45775.41209486111</v>
       </c>
       <c r="D164" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E164" s="3">
         <v>45775.41255023148</v>
@@ -4000,13 +4456,13 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="C165" s="3">
         <v>45775.41267990741</v>
       </c>
       <c r="D165" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E165" s="3">
         <v>45775.41308950231</v>
@@ -4017,13 +4473,13 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="C166" s="3">
         <v>45775.41321837963</v>
       </c>
       <c r="D166" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E166" s="3">
         <v>45775.41369049768</v>
@@ -4034,13 +4490,13 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="C167" s="3">
         <v>45775.41381944445</v>
       </c>
       <c r="D167" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E167" s="3">
         <v>45775.41435927084</v>
@@ -4051,13 +4507,13 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="C168" s="3">
         <v>45775.41448877315</v>
       </c>
       <c r="D168" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E168" s="3">
         <v>45775.41498737269</v>
@@ -4068,13 +4524,13 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="C169" s="3">
         <v>45775.41511671296</v>
       </c>
       <c r="D169" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E169" s="3">
         <v>45775.41557488426</v>
@@ -4085,13 +4541,13 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="C170" s="3">
         <v>45775.41570423611</v>
       </c>
       <c r="D170" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E170" s="3">
         <v>45775.4161408912</v>
@@ -4102,13 +4558,13 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="C171" s="3">
         <v>45775.41901237269</v>
       </c>
       <c r="D171" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E171" s="3">
         <v>45775.41938920139</v>
@@ -4119,13 +4575,13 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="C172" s="3">
         <v>45775.42244789352</v>
       </c>
       <c r="D172" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E172" s="3">
         <v>45775.42286949074</v>
@@ -4136,13 +4592,13 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="C173" s="3">
         <v>45775.4230005787</v>
       </c>
       <c r="D173" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E173" s="3">
         <v>45775.51365075231</v>
@@ -4153,13 +4609,13 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="C174" s="3">
         <v>45775.42340737268</v>
       </c>
       <c r="D174" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E174" s="3">
         <v>45775.51413226852</v>
@@ -4170,13 +4626,13 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="C175" s="3">
         <v>45775.42437162037</v>
       </c>
       <c r="D175" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E175" s="3">
         <v>45775.42476271991</v>
@@ -4187,13 +4643,13 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="C176" s="3">
         <v>45775.42489186343</v>
       </c>
       <c r="D176" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E176" s="3">
         <v>45775.42529319444</v>
@@ -4204,13 +4660,13 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="C177" s="3">
         <v>45775.42542358796</v>
       </c>
       <c r="D177" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E177" s="3">
         <v>45775.61115637732</v>
@@ -4221,13 +4677,13 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="C178" s="3">
         <v>45775.42587868056</v>
       </c>
       <c r="D178" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E178" s="3">
         <v>45775.42633454861</v>
@@ -4238,13 +4694,13 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="C179" s="3">
         <v>45775.42646356481</v>
       </c>
       <c r="D179" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E179" s="3">
         <v>45775.42693894676</v>
@@ -4255,13 +4711,13 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="C180" s="3">
         <v>45775.42752229167</v>
       </c>
       <c r="D180" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E180" s="3">
         <v>45775.42797436343</v>
@@ -4272,13 +4728,13 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="C181" s="3">
         <v>45775.51422746528</v>
       </c>
       <c r="D181" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E181" s="3">
         <v>45775.5146488426</v>
@@ -4289,13 +4745,13 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="C182" s="3">
         <v>45775.51477851852</v>
       </c>
       <c r="D182" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="E182" s="3">
         <v>45775.61164274305</v>
@@ -4306,13 +4762,13 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="C183" s="3">
         <v>45775.51519152777</v>
       </c>
       <c r="D183" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E183" s="3">
         <v>45775.51560634259</v>
@@ -4323,16 +4779,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="C184" s="3">
         <v>45775.51573521991</v>
       </c>
       <c r="D184" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="E184" s="3">
-        <v>45776.6593200223</v>
+        <v>45776.65932002315</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4340,16 +4796,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="C185" s="3">
         <v>45775.54360059028</v>
       </c>
       <c r="D185" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="E185" s="3">
-        <v>45776.65948161444</v>
+        <v>45776.6594816088</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4357,13 +4813,13 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="C186" s="3">
         <v>45775.61624100694</v>
       </c>
       <c r="D186" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E186" s="3">
         <v>45775.61663587963</v>
@@ -4374,16 +4830,1418 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="C187" s="3">
         <v>45775.61676545139</v>
       </c>
       <c r="D187" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="E187" s="3">
         <v>45775.61719873842</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>409</v>
+      </c>
+      <c r="C188" s="3">
+        <v>45777.45369673611</v>
+      </c>
+      <c r="D188" t="s">
+        <v>476</v>
+      </c>
+      <c r="E188" s="3">
+        <v>45777.45412862269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" t="s">
+        <v>410</v>
+      </c>
+      <c r="C189" s="3">
+        <v>45777.45425982639</v>
+      </c>
+      <c r="D189" t="s">
+        <v>476</v>
+      </c>
+      <c r="E189" s="3">
+        <v>45777.45463862269</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>411</v>
+      </c>
+      <c r="C190" s="3">
+        <v>45777.45503637732</v>
+      </c>
+      <c r="D190" t="s">
+        <v>476</v>
+      </c>
+      <c r="E190" s="3">
+        <v>45777.45549546296</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" t="s">
+        <v>412</v>
+      </c>
+      <c r="C191" s="3">
+        <v>45777.45562510416</v>
+      </c>
+      <c r="D191" t="s">
+        <v>476</v>
+      </c>
+      <c r="E191" s="3">
+        <v>45777.45608707176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>413</v>
+      </c>
+      <c r="C192" s="3">
+        <v>45777.45743923611</v>
+      </c>
+      <c r="D192" t="s">
+        <v>476</v>
+      </c>
+      <c r="E192" s="3">
+        <v>45777.45785888889</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" t="s">
+        <v>414</v>
+      </c>
+      <c r="C193" s="3">
+        <v>45777.45798995371</v>
+      </c>
+      <c r="D193" t="s">
+        <v>476</v>
+      </c>
+      <c r="E193" s="3">
+        <v>45777.45834554398</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>415</v>
+      </c>
+      <c r="C194" s="3">
+        <v>45777.45847508102</v>
+      </c>
+      <c r="D194" t="s">
+        <v>476</v>
+      </c>
+      <c r="E194" s="3">
+        <v>45777.45894121528</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" t="s">
+        <v>416</v>
+      </c>
+      <c r="C195" s="3">
+        <v>45777.4590712037</v>
+      </c>
+      <c r="D195" t="s">
+        <v>476</v>
+      </c>
+      <c r="E195" s="3">
+        <v>45777.45947715278</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>417</v>
+      </c>
+      <c r="C196" s="3">
+        <v>45777.45960728009</v>
+      </c>
+      <c r="D196" t="s">
+        <v>476</v>
+      </c>
+      <c r="E196" s="3">
+        <v>45777.4600372338</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" t="s">
+        <v>418</v>
+      </c>
+      <c r="C197" s="3">
+        <v>45777.46037452546</v>
+      </c>
+      <c r="D197" t="s">
+        <v>476</v>
+      </c>
+      <c r="E197" s="3">
+        <v>45777.46082550926</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>419</v>
+      </c>
+      <c r="C198" s="3">
+        <v>45777.46095523148</v>
+      </c>
+      <c r="D198" t="s">
+        <v>476</v>
+      </c>
+      <c r="E198" s="3">
+        <v>45777.46141240741</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" t="s">
+        <v>420</v>
+      </c>
+      <c r="C199" s="3">
+        <v>45777.46154234953</v>
+      </c>
+      <c r="D199" t="s">
+        <v>475</v>
+      </c>
+      <c r="E199" s="3">
+        <v>45777.46257590278</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>421</v>
+      </c>
+      <c r="C200" s="3">
+        <v>45777.47481282408</v>
+      </c>
+      <c r="D200" t="s">
+        <v>476</v>
+      </c>
+      <c r="E200" s="3">
+        <v>45777.47525356481</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" t="s">
+        <v>422</v>
+      </c>
+      <c r="C201" s="3">
+        <v>45777.47559267361</v>
+      </c>
+      <c r="D201" t="s">
+        <v>476</v>
+      </c>
+      <c r="E201" s="3">
+        <v>45777.47599561343</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>423</v>
+      </c>
+      <c r="C202" s="3">
+        <v>45777.47612594908</v>
+      </c>
+      <c r="D202" t="s">
+        <v>476</v>
+      </c>
+      <c r="E202" s="3">
+        <v>45777.47653001158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>424</v>
+      </c>
+      <c r="C203" s="3">
+        <v>45777.47777653935</v>
+      </c>
+      <c r="D203" t="s">
+        <v>476</v>
+      </c>
+      <c r="E203" s="3">
+        <v>45777.47821241898</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>425</v>
+      </c>
+      <c r="C204" s="3">
+        <v>45777.48041662037</v>
+      </c>
+      <c r="D204" t="s">
+        <v>476</v>
+      </c>
+      <c r="E204" s="3">
+        <v>45777.48085704861</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" t="s">
+        <v>426</v>
+      </c>
+      <c r="C205" s="3">
+        <v>45777.48098739584</v>
+      </c>
+      <c r="D205" t="s">
+        <v>476</v>
+      </c>
+      <c r="E205" s="3">
+        <v>45777.48142959491</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>427</v>
+      </c>
+      <c r="C206" s="3">
+        <v>45777.52199859954</v>
+      </c>
+      <c r="D206" t="s">
+        <v>475</v>
+      </c>
+      <c r="E206" s="3">
+        <v>45777.52315828704</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" t="s">
+        <v>428</v>
+      </c>
+      <c r="C207" s="3">
+        <v>45777.53017545139</v>
+      </c>
+      <c r="D207" t="s">
+        <v>476</v>
+      </c>
+      <c r="E207" s="3">
+        <v>45777.53062283565</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>429</v>
+      </c>
+      <c r="C208" s="3">
+        <v>45777.53075303241</v>
+      </c>
+      <c r="D208" t="s">
+        <v>476</v>
+      </c>
+      <c r="E208" s="3">
+        <v>45777.5311978588</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" t="s">
+        <v>430</v>
+      </c>
+      <c r="C209" s="3">
+        <v>45777.53132789352</v>
+      </c>
+      <c r="D209" t="s">
+        <v>475</v>
+      </c>
+      <c r="E209" s="3">
+        <v>45777.53271130787</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>431</v>
+      </c>
+      <c r="C210" s="3">
+        <v>45777.54148373842</v>
+      </c>
+      <c r="D210" t="s">
+        <v>476</v>
+      </c>
+      <c r="E210" s="3">
+        <v>45777.54189291667</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" t="s">
+        <v>432</v>
+      </c>
+      <c r="C211" s="3">
+        <v>45777.5452340162</v>
+      </c>
+      <c r="D211" t="s">
+        <v>476</v>
+      </c>
+      <c r="E211" s="3">
+        <v>45777.54557011574</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>433</v>
+      </c>
+      <c r="C212" s="3">
+        <v>45777.54570076389</v>
+      </c>
+      <c r="D212" t="s">
+        <v>476</v>
+      </c>
+      <c r="E212" s="3">
+        <v>45777.54614734954</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" t="s">
+        <v>434</v>
+      </c>
+      <c r="C213" s="3">
+        <v>45777.54627796296</v>
+      </c>
+      <c r="D213" t="s">
+        <v>476</v>
+      </c>
+      <c r="E213" s="3">
+        <v>45777.54669364583</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>435</v>
+      </c>
+      <c r="C214" s="3">
+        <v>45777.54682335648</v>
+      </c>
+      <c r="D214" t="s">
+        <v>476</v>
+      </c>
+      <c r="E214" s="3">
+        <v>45777.54724125</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" t="s">
+        <v>436</v>
+      </c>
+      <c r="C215" s="3">
+        <v>45777.54737120371</v>
+      </c>
+      <c r="D215" t="s">
+        <v>476</v>
+      </c>
+      <c r="E215" s="3">
+        <v>45777.54779928241</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>437</v>
+      </c>
+      <c r="C216" s="3">
+        <v>45777.54793052084</v>
+      </c>
+      <c r="D216" t="s">
+        <v>476</v>
+      </c>
+      <c r="E216" s="3">
+        <v>45777.5482819213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" t="s">
+        <v>438</v>
+      </c>
+      <c r="C217" s="3">
+        <v>45777.54841222222</v>
+      </c>
+      <c r="D217" t="s">
+        <v>476</v>
+      </c>
+      <c r="E217" s="3">
+        <v>45777.54884090277</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>439</v>
+      </c>
+      <c r="C218" s="3">
+        <v>45777.54920082176</v>
+      </c>
+      <c r="D218" t="s">
+        <v>476</v>
+      </c>
+      <c r="E218" s="3">
+        <v>45777.549696875</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" t="s">
+        <v>440</v>
+      </c>
+      <c r="C219" s="3">
+        <v>45777.55261489583</v>
+      </c>
+      <c r="D219" t="s">
+        <v>476</v>
+      </c>
+      <c r="E219" s="3">
+        <v>45777.55302483797</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>441</v>
+      </c>
+      <c r="C220" s="3">
+        <v>45777.55315493055</v>
+      </c>
+      <c r="D220" t="s">
+        <v>476</v>
+      </c>
+      <c r="E220" s="3">
+        <v>45777.55361825231</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" t="s">
+        <v>442</v>
+      </c>
+      <c r="C221" s="3">
+        <v>45777.55416972222</v>
+      </c>
+      <c r="D221" t="s">
+        <v>476</v>
+      </c>
+      <c r="E221" s="3">
+        <v>45777.55455928241</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+      <c r="C222" s="3">
+        <v>45777.55469055555</v>
+      </c>
+      <c r="D222" t="s">
+        <v>476</v>
+      </c>
+      <c r="E222" s="3">
+        <v>45777.55499464121</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" t="s">
+        <v>444</v>
+      </c>
+      <c r="C223" s="3">
+        <v>45777.55574516203</v>
+      </c>
+      <c r="D223" t="s">
+        <v>476</v>
+      </c>
+      <c r="E223" s="3">
+        <v>45777.55617422453</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>445</v>
+      </c>
+      <c r="C224" s="3">
+        <v>45777.56043461806</v>
+      </c>
+      <c r="D224" t="s">
+        <v>476</v>
+      </c>
+      <c r="E224" s="3">
+        <v>45777.56086503472</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" t="s">
+        <v>446</v>
+      </c>
+      <c r="C225" s="3">
+        <v>45777.56099530093</v>
+      </c>
+      <c r="D225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E225" s="3">
+        <v>45777.56141915509</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226" s="3">
+        <v>45777.56154872685</v>
+      </c>
+      <c r="D226" t="s">
+        <v>476</v>
+      </c>
+      <c r="E226" s="3">
+        <v>45777.56200226852</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" t="s">
+        <v>448</v>
+      </c>
+      <c r="C227" s="3">
+        <v>45777.5621325463</v>
+      </c>
+      <c r="D227" t="s">
+        <v>476</v>
+      </c>
+      <c r="E227" s="3">
+        <v>45777.56254666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" t="s">
+        <v>449</v>
+      </c>
+      <c r="C228" s="3">
+        <v>45777.56267730324</v>
+      </c>
+      <c r="D228" t="s">
+        <v>476</v>
+      </c>
+      <c r="E228" s="3">
+        <v>45777.56315172453</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" t="s">
+        <v>450</v>
+      </c>
+      <c r="C229" s="3">
+        <v>45777.56539753472</v>
+      </c>
+      <c r="D229" t="s">
+        <v>476</v>
+      </c>
+      <c r="E229" s="3">
+        <v>45777.56581688658</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" t="s">
+        <v>451</v>
+      </c>
+      <c r="C230" s="3">
+        <v>45777.56594686343</v>
+      </c>
+      <c r="D230" t="s">
+        <v>476</v>
+      </c>
+      <c r="E230" s="3">
+        <v>45777.56640076389</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" t="s">
+        <v>452</v>
+      </c>
+      <c r="C231" s="3">
+        <v>45777.56674744213</v>
+      </c>
+      <c r="D231" t="s">
+        <v>476</v>
+      </c>
+      <c r="E231" s="3">
+        <v>45777.56716092592</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" t="s">
+        <v>453</v>
+      </c>
+      <c r="C232" s="3">
+        <v>45777.57195967592</v>
+      </c>
+      <c r="D232" t="s">
+        <v>476</v>
+      </c>
+      <c r="E232" s="3">
+        <v>45777.57239671296</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" t="s">
+        <v>454</v>
+      </c>
+      <c r="C233" s="3">
+        <v>45777.5745215162</v>
+      </c>
+      <c r="D233" t="s">
+        <v>476</v>
+      </c>
+      <c r="E233" s="3">
+        <v>45777.57499321759</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
+        <v>455</v>
+      </c>
+      <c r="C234" s="3">
+        <v>45777.57512363426</v>
+      </c>
+      <c r="D234" t="s">
+        <v>476</v>
+      </c>
+      <c r="E234" s="3">
+        <v>45777.5755440162</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" t="s">
+        <v>456</v>
+      </c>
+      <c r="C235" s="3">
+        <v>45777.57567354167</v>
+      </c>
+      <c r="D235" t="s">
+        <v>476</v>
+      </c>
+      <c r="E235" s="3">
+        <v>45777.5760812037</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" t="s">
+        <v>457</v>
+      </c>
+      <c r="C236" s="3">
+        <v>45777.57621106481</v>
+      </c>
+      <c r="D236" t="s">
+        <v>476</v>
+      </c>
+      <c r="E236" s="3">
+        <v>45777.57666052083</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" t="s">
+        <v>458</v>
+      </c>
+      <c r="C237" s="3">
+        <v>45777.57774726851</v>
+      </c>
+      <c r="D237" t="s">
+        <v>476</v>
+      </c>
+      <c r="E237" s="3">
+        <v>45777.57815320602</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" t="s">
+        <v>459</v>
+      </c>
+      <c r="C238" s="3">
+        <v>45777.57828346065</v>
+      </c>
+      <c r="D238" t="s">
+        <v>476</v>
+      </c>
+      <c r="E238" s="3">
+        <v>45777.5786674074</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" t="s">
+        <v>460</v>
+      </c>
+      <c r="C239" s="3">
+        <v>45777.57879688658</v>
+      </c>
+      <c r="D239" t="s">
+        <v>476</v>
+      </c>
+      <c r="E239" s="3">
+        <v>45777.5792115162</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" t="s">
+        <v>461</v>
+      </c>
+      <c r="C240" s="3">
+        <v>45777.58199202547</v>
+      </c>
+      <c r="D240" t="s">
+        <v>476</v>
+      </c>
+      <c r="E240" s="3">
+        <v>45777.58237386574</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" t="s">
+        <v>462</v>
+      </c>
+      <c r="C241" s="3">
+        <v>45777.58294728009</v>
+      </c>
+      <c r="D241" t="s">
+        <v>476</v>
+      </c>
+      <c r="E241" s="3">
+        <v>45777.58327886574</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" t="s">
+        <v>463</v>
+      </c>
+      <c r="C242" s="3">
+        <v>45777.58449697917</v>
+      </c>
+      <c r="D242" t="s">
+        <v>476</v>
+      </c>
+      <c r="E242" s="3">
+        <v>45777.58494670139</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" t="s">
+        <v>464</v>
+      </c>
+      <c r="C243" s="3">
+        <v>45777.586339375</v>
+      </c>
+      <c r="D243" t="s">
+        <v>476</v>
+      </c>
+      <c r="E243" s="3">
+        <v>45777.58674207176</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" t="s">
+        <v>465</v>
+      </c>
+      <c r="C244" s="3">
+        <v>45777.58687200231</v>
+      </c>
+      <c r="D244" t="s">
+        <v>475</v>
+      </c>
+      <c r="E244" s="3">
+        <v>45777.58828344908</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" t="s">
+        <v>466</v>
+      </c>
+      <c r="C245" s="3">
+        <v>45777.59142310185</v>
+      </c>
+      <c r="D245" t="s">
+        <v>476</v>
+      </c>
+      <c r="E245" s="3">
+        <v>45777.59191064815</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" t="s">
+        <v>467</v>
+      </c>
+      <c r="C246" s="3">
+        <v>45777.59204101852</v>
+      </c>
+      <c r="D246" t="s">
+        <v>476</v>
+      </c>
+      <c r="E246" s="3">
+        <v>45777.59248254629</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" t="s">
+        <v>468</v>
+      </c>
+      <c r="C247" s="3">
+        <v>45777.59566336805</v>
+      </c>
+      <c r="D247" t="s">
+        <v>476</v>
+      </c>
+      <c r="E247" s="3">
+        <v>45777.5959828125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" t="s">
+        <v>469</v>
+      </c>
+      <c r="C248" s="3">
+        <v>45777.59634611111</v>
+      </c>
+      <c r="D248" t="s">
+        <v>475</v>
+      </c>
+      <c r="E248" s="3">
+        <v>45777.59757892361</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C249" s="3">
+        <v>45777.60171716435</v>
+      </c>
+      <c r="D249" t="s">
+        <v>476</v>
+      </c>
+      <c r="E249" s="3">
+        <v>45777.60205569444</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250" s="3">
+        <v>45777.60218685185</v>
+      </c>
+      <c r="D250" t="s">
+        <v>476</v>
+      </c>
+      <c r="E250" s="3">
+        <v>45777.60263747686</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251" s="3">
+        <v>45777.60276744213</v>
+      </c>
+      <c r="D251" t="s">
+        <v>476</v>
+      </c>
+      <c r="E251" s="3">
+        <v>45777.60320635416</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C252" s="3">
+        <v>45777.60811798611</v>
+      </c>
+      <c r="D252" t="s">
+        <v>476</v>
+      </c>
+      <c r="E252" s="3">
+        <v>45777.60852851852</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C253" s="3">
+        <v>45777.60865805556</v>
+      </c>
+      <c r="D253" t="s">
+        <v>475</v>
+      </c>
+      <c r="E253" s="3">
+        <v>45777.63205467592</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C254" s="3">
+        <v>45777.60908672454</v>
+      </c>
+      <c r="D254" t="s">
+        <v>476</v>
+      </c>
+      <c r="E254" s="3">
+        <v>45777.60956372685</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C255" s="3">
+        <v>45777.60969359954</v>
+      </c>
+      <c r="D255" t="s">
+        <v>476</v>
+      </c>
+      <c r="E255" s="3">
+        <v>45777.61011138889</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" s="3">
+        <v>45777.61956015047</v>
+      </c>
+      <c r="D256" t="s">
+        <v>476</v>
+      </c>
+      <c r="E256" s="3">
+        <v>45777.62000842593</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257" s="3">
+        <v>45777.62297302084</v>
+      </c>
+      <c r="D257" t="s">
+        <v>476</v>
+      </c>
+      <c r="E257" s="3">
+        <v>45777.62338473379</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258" s="3">
+        <v>45777.62351621528</v>
+      </c>
+      <c r="D258" t="s">
+        <v>476</v>
+      </c>
+      <c r="E258" s="3">
+        <v>45777.62398487268</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C259" s="3">
+        <v>45777.62452083333</v>
+      </c>
+      <c r="D259" t="s">
+        <v>476</v>
+      </c>
+      <c r="E259" s="3">
+        <v>45777.62491211806</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260" t="s">
+        <v>470</v>
+      </c>
+      <c r="C260" s="3">
+        <v>45777.62504193287</v>
+      </c>
+      <c r="D260" t="s">
+        <v>476</v>
+      </c>
+      <c r="E260" s="3">
+        <v>45777.62547900463</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C261" s="3">
+        <v>45777.62560967592</v>
+      </c>
+      <c r="D261" t="s">
+        <v>476</v>
+      </c>
+      <c r="E261" s="3">
+        <v>45777.6260365625</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C262" s="3">
+        <v>45777.62616620371</v>
+      </c>
+      <c r="D262" t="s">
+        <v>476</v>
+      </c>
+      <c r="E262" s="3">
+        <v>45777.62659716435</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C263" s="3">
+        <v>45777.62672695602</v>
+      </c>
+      <c r="D263" t="s">
+        <v>476</v>
+      </c>
+      <c r="E263" s="3">
+        <v>45777.62716805556</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C264" s="3">
+        <v>45777.62729770834</v>
+      </c>
+      <c r="D264" t="s">
+        <v>476</v>
+      </c>
+      <c r="E264" s="3">
+        <v>45777.62774388889</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265" t="s">
+        <v>471</v>
+      </c>
+      <c r="C265" s="3">
+        <v>45777.62787458333</v>
+      </c>
+      <c r="D265" t="s">
+        <v>476</v>
+      </c>
+      <c r="E265" s="3">
+        <v>45777.62829085648</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266" t="s">
+        <v>472</v>
+      </c>
+      <c r="C266" s="3">
+        <v>45777.62842081019</v>
+      </c>
+      <c r="D266" t="s">
+        <v>476</v>
+      </c>
+      <c r="E266" s="3">
+        <v>45777.62882155093</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C267" s="3">
+        <v>45777.62917266204</v>
+      </c>
+      <c r="D267" t="s">
+        <v>476</v>
+      </c>
+      <c r="E267" s="3">
+        <v>45777.62960810185</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C268" s="3">
+        <v>45777.62973864583</v>
+      </c>
+      <c r="D268" t="s">
+        <v>476</v>
+      </c>
+      <c r="E268" s="3">
+        <v>45777.63018408565</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269" s="3">
+        <v>45777.63031476852</v>
+      </c>
+      <c r="D269" t="s">
+        <v>476</v>
+      </c>
+      <c r="E269" s="3">
+        <v>45777.63072420139</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C270" s="3">
+        <v>45777.63085582176</v>
+      </c>
+      <c r="D270" t="s">
+        <v>476</v>
+      </c>
+      <c r="E270" s="3">
+        <v>45777.631304375</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C271" s="3">
+        <v>45777.63215131944</v>
+      </c>
+      <c r="D271" t="s">
+        <v>475</v>
+      </c>
+      <c r="E271" s="3">
+        <v>45777.63979958333</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272" t="s">
+        <v>473</v>
+      </c>
+      <c r="C272" s="3">
+        <v>45777.63755630787</v>
+      </c>
+      <c r="D272" t="s">
+        <v>476</v>
+      </c>
+      <c r="E272" s="3">
+        <v>45777.63802789352</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" t="s">
+        <v>474</v>
+      </c>
+      <c r="C273" s="3">
+        <v>45777.64124468889</v>
+      </c>
+      <c r="D273" t="s">
+        <v>476</v>
+      </c>
+      <c r="E273" s="3">
+        <v>45777.64168423965</v>
       </c>
     </row>
   </sheetData>
@@ -4574,6 +6432,92 @@
     <hyperlink ref="A185" r:id="rId184"/>
     <hyperlink ref="A186" r:id="rId185"/>
     <hyperlink ref="A187" r:id="rId186"/>
+    <hyperlink ref="A188" r:id="rId187"/>
+    <hyperlink ref="A189" r:id="rId188"/>
+    <hyperlink ref="A190" r:id="rId189"/>
+    <hyperlink ref="A191" r:id="rId190"/>
+    <hyperlink ref="A192" r:id="rId191"/>
+    <hyperlink ref="A193" r:id="rId192"/>
+    <hyperlink ref="A194" r:id="rId193"/>
+    <hyperlink ref="A195" r:id="rId194"/>
+    <hyperlink ref="A196" r:id="rId195"/>
+    <hyperlink ref="A197" r:id="rId196"/>
+    <hyperlink ref="A198" r:id="rId197"/>
+    <hyperlink ref="A199" r:id="rId198"/>
+    <hyperlink ref="A200" r:id="rId199"/>
+    <hyperlink ref="A201" r:id="rId200"/>
+    <hyperlink ref="A202" r:id="rId201"/>
+    <hyperlink ref="A203" r:id="rId202"/>
+    <hyperlink ref="A204" r:id="rId203"/>
+    <hyperlink ref="A205" r:id="rId204"/>
+    <hyperlink ref="A206" r:id="rId205"/>
+    <hyperlink ref="A207" r:id="rId206"/>
+    <hyperlink ref="A208" r:id="rId207"/>
+    <hyperlink ref="A209" r:id="rId208"/>
+    <hyperlink ref="A210" r:id="rId209"/>
+    <hyperlink ref="A211" r:id="rId210"/>
+    <hyperlink ref="A212" r:id="rId211"/>
+    <hyperlink ref="A213" r:id="rId212"/>
+    <hyperlink ref="A214" r:id="rId213"/>
+    <hyperlink ref="A215" r:id="rId214"/>
+    <hyperlink ref="A216" r:id="rId215"/>
+    <hyperlink ref="A217" r:id="rId216"/>
+    <hyperlink ref="A218" r:id="rId217"/>
+    <hyperlink ref="A219" r:id="rId218"/>
+    <hyperlink ref="A220" r:id="rId219"/>
+    <hyperlink ref="A221" r:id="rId220"/>
+    <hyperlink ref="A222" r:id="rId221"/>
+    <hyperlink ref="A223" r:id="rId222"/>
+    <hyperlink ref="A224" r:id="rId223"/>
+    <hyperlink ref="A225" r:id="rId224"/>
+    <hyperlink ref="A226" r:id="rId225"/>
+    <hyperlink ref="A227" r:id="rId226"/>
+    <hyperlink ref="A228" r:id="rId227"/>
+    <hyperlink ref="A229" r:id="rId228"/>
+    <hyperlink ref="A230" r:id="rId229"/>
+    <hyperlink ref="A231" r:id="rId230"/>
+    <hyperlink ref="A232" r:id="rId231"/>
+    <hyperlink ref="A233" r:id="rId232"/>
+    <hyperlink ref="A234" r:id="rId233"/>
+    <hyperlink ref="A235" r:id="rId234"/>
+    <hyperlink ref="A236" r:id="rId235"/>
+    <hyperlink ref="A237" r:id="rId236"/>
+    <hyperlink ref="A238" r:id="rId237"/>
+    <hyperlink ref="A239" r:id="rId238"/>
+    <hyperlink ref="A240" r:id="rId239"/>
+    <hyperlink ref="A241" r:id="rId240"/>
+    <hyperlink ref="A242" r:id="rId241"/>
+    <hyperlink ref="A243" r:id="rId242"/>
+    <hyperlink ref="A244" r:id="rId243"/>
+    <hyperlink ref="A245" r:id="rId244"/>
+    <hyperlink ref="A246" r:id="rId245"/>
+    <hyperlink ref="A247" r:id="rId246"/>
+    <hyperlink ref="A248" r:id="rId247"/>
+    <hyperlink ref="A249" r:id="rId248"/>
+    <hyperlink ref="A250" r:id="rId249"/>
+    <hyperlink ref="A251" r:id="rId250"/>
+    <hyperlink ref="A252" r:id="rId251"/>
+    <hyperlink ref="A253" r:id="rId252"/>
+    <hyperlink ref="A254" r:id="rId253"/>
+    <hyperlink ref="A255" r:id="rId254"/>
+    <hyperlink ref="A256" r:id="rId255"/>
+    <hyperlink ref="A257" r:id="rId256"/>
+    <hyperlink ref="A258" r:id="rId257"/>
+    <hyperlink ref="A259" r:id="rId258"/>
+    <hyperlink ref="A260" r:id="rId259"/>
+    <hyperlink ref="A261" r:id="rId260"/>
+    <hyperlink ref="A262" r:id="rId261"/>
+    <hyperlink ref="A263" r:id="rId262"/>
+    <hyperlink ref="A264" r:id="rId263"/>
+    <hyperlink ref="A265" r:id="rId264"/>
+    <hyperlink ref="A266" r:id="rId265"/>
+    <hyperlink ref="A267" r:id="rId266"/>
+    <hyperlink ref="A268" r:id="rId267"/>
+    <hyperlink ref="A269" r:id="rId268"/>
+    <hyperlink ref="A270" r:id="rId269"/>
+    <hyperlink ref="A271" r:id="rId270"/>
+    <hyperlink ref="A272" r:id="rId271"/>
+    <hyperlink ref="A273" r:id="rId272"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
